--- a/ExcelSheets/User_Credential.xlsx
+++ b/ExcelSheets/User_Credential.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2308898\eclipse-workspace\MakeMyTrip_2\ExcelSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA7ED15-D539-4B41-8539-93CEC8A6C8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47CF62D-82F5-453D-8A40-0AD6FADDC3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Name</t>
   </si>
@@ -36,28 +36,10 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Swapnanil Sengupta</t>
-  </si>
-  <si>
     <t>Osman Gani</t>
   </si>
   <si>
-    <t>Shardul Kulkarni</t>
-  </si>
-  <si>
-    <t>Vikram Singh</t>
-  </si>
-  <si>
     <t>jdhvcsdhc</t>
-  </si>
-  <si>
-    <t>khjsdckshd</t>
-  </si>
-  <si>
-    <t>ujsyfxsuj</t>
-  </si>
-  <si>
-    <t>uygsusqgyd</t>
   </si>
 </sst>
 </file>
@@ -375,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -401,46 +383,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>9038975068</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>8910263618</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>8329955865</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>8869038990</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
